--- a/va_facility_data_2025-02-20/Santa Fe VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Santa%20Fe%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Santa Fe VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Santa%20Fe%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R39657b2e2a7849c1b3295ed02a8d2e2c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R808e9366970743458a5b44cc77a1a732"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R401e42ffd88a40a58ef7a9cbb5b11305"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rac232d6564df46b282ca23ab1cf6f848"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R15c58bb52a54471da0cc7fb58b8d2b61"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R854ffa0e95a24621935a50ad50d818ad"/>
   </x:sheets>
 </x:workbook>
 </file>
